--- a/fifty_one/measurements/Updated_full_body_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_body_Filtered_Data_with_real_length.xlsx
@@ -751,7 +751,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab47774</t>
+          <t>67c8a6c51acbd796e05577c8</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -911,7 +911,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab47772</t>
+          <t>67c8a6c51acbd796e05577c6</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab47776</t>
+          <t>67c8a6c51acbd796e05577ca</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab475c0</t>
+          <t>67c8a6c11acbd796e0557614</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab475c4</t>
+          <t>67c8a6c11acbd796e0557618</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab475c2</t>
+          <t>67c8a6c11acbd796e0557616</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab475c6</t>
+          <t>67c8a6c11acbd796e055761a</t>
         </is>
       </c>
       <c r="W8" t="n">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab4788a</t>
+          <t>67c8a6c81acbd796e05578de</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab4788c</t>
+          <t>67c8a6c81acbd796e05578e0</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab4788e</t>
+          <t>67c8a6c81acbd796e05578e2</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab479dc</t>
+          <t>67c8a6cc1acbd796e0557a30</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab479da</t>
+          <t>67c8a6cc1acbd796e0557a2e</t>
         </is>
       </c>
       <c r="W13" t="n">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab47745</t>
+          <t>67c8a6c51acbd796e0557799</t>
         </is>
       </c>
       <c r="W14" t="n">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab47749</t>
+          <t>67c8a6c51acbd796e055779d</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab47743</t>
+          <t>67c8a6c51acbd796e0557797</t>
         </is>
       </c>
       <c r="W16" t="n">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab47747</t>
+          <t>67c8a6c51acbd796e055779b</t>
         </is>
       </c>
       <c r="W17" t="n">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478e4</t>
+          <t>67c8a6c91acbd796e0557938</t>
         </is>
       </c>
       <c r="W18" t="n">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478e6</t>
+          <t>67c8a6c91acbd796e055793a</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>67c5e243fb8374ec0ab47642</t>
+          <t>67c8a6c21acbd796e0557696</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>67c5e243fb8374ec0ab47640</t>
+          <t>67c8a6c21acbd796e0557694</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>67c5e243fb8374ec0ab4763e</t>
+          <t>67c8a6c21acbd796e0557692</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47570</t>
+          <t>67c8a6bf1acbd796e05575c4</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47572</t>
+          <t>67c8a6bf1acbd796e05575c6</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47574</t>
+          <t>67c8a6bf1acbd796e05575c8</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab47716</t>
+          <t>67c8a6c51acbd796e055776a</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab47714</t>
+          <t>67c8a6c51acbd796e0557768</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab4771a</t>
+          <t>67c8a6c51acbd796e055776e</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab477d0</t>
+          <t>67c8a6c61acbd796e0557824</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab477d4</t>
+          <t>67c8a6c61acbd796e0557828</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab477da</t>
+          <t>67c8a6c61acbd796e055782e</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab477d2</t>
+          <t>67c8a6c61acbd796e0557826</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab477d6</t>
+          <t>67c8a6c61acbd796e055782a</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab47600</t>
+          <t>67c8a6c11acbd796e0557654</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab47602</t>
+          <t>67c8a6c11acbd796e0557656</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab47602</t>
+          <t>67c8a6c11acbd796e0557656</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab4779d</t>
+          <t>67c8a6c61acbd796e05577f1</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab47799</t>
+          <t>67c8a6c61acbd796e05577ed</t>
         </is>
       </c>
       <c r="W38" t="n">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab47795</t>
+          <t>67c8a6c61acbd796e05577e9</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab47797</t>
+          <t>67c8a6c61acbd796e05577eb</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab4779b</t>
+          <t>67c8a6c61acbd796e05577ef</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478af</t>
+          <t>67c8a6c81acbd796e0557903</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478ab</t>
+          <t>67c8a6c81acbd796e05578ff</t>
         </is>
       </c>
       <c r="W43" t="n">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478ad</t>
+          <t>67c8a6c81acbd796e0557901</t>
         </is>
       </c>
       <c r="W44" t="n">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478a9</t>
+          <t>67c8a6c81acbd796e05578fd</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab47818</t>
+          <t>67c8a6c71acbd796e055786c</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab4781a</t>
+          <t>67c8a6c71acbd796e055786e</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab4781e</t>
+          <t>67c8a6c71acbd796e0557872</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab4781c</t>
+          <t>67c8a6c71acbd796e0557870</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab475eb</t>
+          <t>67c8a6c11acbd796e055763f</t>
         </is>
       </c>
       <c r="W50" t="n">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab475ed</t>
+          <t>67c8a6c11acbd796e0557641</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>67c5e24cfb8374ec0ab479ef</t>
+          <t>67c8a6cd1acbd796e0557a43</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>67c5e24cfb8374ec0ab479f1</t>
+          <t>67c8a6cd1acbd796e0557a45</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>67c5e24cfb8374ec0ab479f3</t>
+          <t>67c8a6cd1acbd796e0557a47</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>67c5e248fb8374ec0ab4785e</t>
+          <t>67c8a6c81acbd796e05578b2</t>
         </is>
       </c>
       <c r="W55" t="n">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>67c5e248fb8374ec0ab4785a</t>
+          <t>67c8a6c81acbd796e05578ae</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>67c5e248fb8374ec0ab47858</t>
+          <t>67c8a6c81acbd796e05578ac</t>
         </is>
       </c>
       <c r="W57" t="n">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>67c5e24afb8374ec0ab4793a</t>
+          <t>67c8a6ca1acbd796e055798e</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>67c5e24afb8374ec0ab47938</t>
+          <t>67c8a6ca1acbd796e055798c</t>
         </is>
       </c>
       <c r="W59" t="n">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>67c5e24afb8374ec0ab4793c</t>
+          <t>67c8a6ca1acbd796e0557990</t>
         </is>
       </c>
       <c r="W60" t="n">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>67c5e24afb8374ec0ab4793e</t>
+          <t>67c8a6ca1acbd796e0557992</t>
         </is>
       </c>
       <c r="W61" t="n">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab4768c</t>
+          <t>67c8a6c31acbd796e05576e0</t>
         </is>
       </c>
       <c r="W62" t="n">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab4768e</t>
+          <t>67c8a6c31acbd796e05576e2</t>
         </is>
       </c>
       <c r="W63" t="n">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab4768a</t>
+          <t>67c8a6c31acbd796e05576de</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab476c6</t>
+          <t>67c8a6c41acbd796e055771a</t>
         </is>
       </c>
       <c r="W65" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab476ca</t>
+          <t>67c8a6c41acbd796e055771e</t>
         </is>
       </c>
       <c r="W66" t="n">
@@ -11151,7 +11151,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab476af</t>
+          <t>67c8a6c41acbd796e0557703</t>
         </is>
       </c>
       <c r="W67" t="n">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab476ad</t>
+          <t>67c8a6c41acbd796e0557701</t>
         </is>
       </c>
       <c r="W68" t="n">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab47973</t>
+          <t>67c8a6cb1acbd796e05579c7</t>
         </is>
       </c>
       <c r="W69" t="n">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab4796f</t>
+          <t>67c8a6cb1acbd796e05579c3</t>
         </is>
       </c>
       <c r="W70" t="n">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab4796b</t>
+          <t>67c8a6cb1acbd796e05579bf</t>
         </is>
       </c>
       <c r="W71" t="n">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab476e7</t>
+          <t>67c8a6c41acbd796e055773b</t>
         </is>
       </c>
       <c r="W72" t="n">
@@ -12111,7 +12111,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab476e3</t>
+          <t>67c8a6c41acbd796e0557737</t>
         </is>
       </c>
       <c r="W73" t="n">
@@ -12271,7 +12271,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab476e9</t>
+          <t>67c8a6c41acbd796e055773d</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab476e5</t>
+          <t>67c8a6c41acbd796e0557739</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a63</t>
+          <t>67c8a6ce1acbd796e0557ab7</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a67</t>
+          <t>67c8a6ce1acbd796e0557abb</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a65</t>
+          <t>67c8a6ce1acbd796e0557ab9</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a69</t>
+          <t>67c8a6ce1acbd796e0557abd</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>67c5e243fb8374ec0ab47672</t>
+          <t>67c8a6c31acbd796e05576c6</t>
         </is>
       </c>
       <c r="W80" t="n">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a90</t>
+          <t>67c8a6ce1acbd796e0557ae4</t>
         </is>
       </c>
       <c r="W81" t="n">
@@ -13551,7 +13551,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a8e</t>
+          <t>67c8a6ce1acbd796e0557ae2</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -13711,7 +13711,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a92</t>
+          <t>67c8a6ce1acbd796e0557ae6</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478fd</t>
+          <t>67c8a6c91acbd796e0557951</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478ff</t>
+          <t>67c8a6c91acbd796e0557953</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>67c5e24afb8374ec0ab47916</t>
+          <t>67c8a6ca1acbd796e055796a</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>67c5e24cfb8374ec0ab47a0e</t>
+          <t>67c8a6cd1acbd796e0557a62</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -14511,7 +14511,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>67c5e24afb8374ec0ab4792d</t>
+          <t>67c8a6ca1acbd796e0557981</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>67c5e243fb8374ec0ab47625</t>
+          <t>67c8a6c21acbd796e0557679</t>
         </is>
       </c>
       <c r="W89" t="n">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>67c5e243fb8374ec0ab47623</t>
+          <t>67c8a6c21acbd796e0557677</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47597</t>
+          <t>67c8a6c01acbd796e05575eb</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -15151,7 +15151,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47599</t>
+          <t>67c8a6c01acbd796e05575ed</t>
         </is>
       </c>
       <c r="W92" t="n">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47593</t>
+          <t>67c8a6c01acbd796e05575e7</t>
         </is>
       </c>
       <c r="W93" t="n">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47595</t>
+          <t>67c8a6c01acbd796e05575e9</t>
         </is>
       </c>
       <c r="W94" t="n">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab479ab</t>
+          <t>67c8a6cb1acbd796e05579ff</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab479ad</t>
+          <t>67c8a6cb1acbd796e0557a01</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab479b1</t>
+          <t>67c8a6cb1acbd796e0557a05</t>
         </is>
       </c>
       <c r="W97" t="n">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab479af</t>
+          <t>67c8a6cb1acbd796e0557a03</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -16271,7 +16271,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab47998</t>
+          <t>67c8a6cb1acbd796e05579ec</t>
         </is>
       </c>
       <c r="W99" t="n">
@@ -16431,7 +16431,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab47996</t>
+          <t>67c8a6cb1acbd796e05579ea</t>
         </is>
       </c>
       <c r="W100" t="n">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>67c5e248fb8374ec0ab47879</t>
+          <t>67c8a6c81acbd796e05578cd</t>
         </is>
       </c>
       <c r="W101" t="n">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a2e</t>
+          <t>67c8a6ce1acbd796e0557a82</t>
         </is>
       </c>
       <c r="W102" t="n">
@@ -16911,7 +16911,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a36</t>
+          <t>67c8a6ce1acbd796e0557a8a</t>
         </is>
       </c>
       <c r="W103" t="n">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a36</t>
+          <t>67c8a6ce1acbd796e0557a8a</t>
         </is>
       </c>
       <c r="W104" t="n">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a30</t>
+          <t>67c8a6ce1acbd796e0557a84</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -17391,7 +17391,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a32</t>
+          <t>67c8a6ce1acbd796e0557a86</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>67c5e24cfb8374ec0ab47a1d</t>
+          <t>67c8a6cd1acbd796e0557a71</t>
         </is>
       </c>
       <c r="W107" t="n">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>67c5e24efb8374ec0ab47abb</t>
+          <t>67c8a6cf1acbd796e0557b0f</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -17871,7 +17871,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>67c5e24efb8374ec0ab47ab9</t>
+          <t>67c8a6cf1acbd796e0557b0d</t>
         </is>
       </c>
       <c r="W109" t="n">
@@ -18021,7 +18021,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S110" t="n">
-        <v>103.493629008867</v>
+        <v>132.172586445059</v>
       </c>
       <c r="T110" t="n">
         <v>864.3610998661266</v>
@@ -18031,17 +18031,17 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>67c5e24ffb8374ec0ab47afd</t>
+          <t>67c8a6d11acbd796e0557b51</t>
         </is>
       </c>
       <c r="W110" t="n">
-        <v>101.2527632346806</v>
+        <v>129.3107578659776</v>
       </c>
       <c r="X110" t="n">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="Y110" t="n">
-        <v>101.7677320771105</v>
+        <v>129.9684289177556</v>
       </c>
       <c r="Z110" t="n">
         <v>818.0424386</v>
@@ -18061,58 +18061,58 @@
         <v>845.6405722144219</v>
       </c>
       <c r="AE110" t="n">
-        <v>4.686237318032786</v>
+        <v>21.72601017215088</v>
       </c>
       <c r="AF110" t="n">
-        <v>18.94591479772608</v>
+        <v>3.514855800494389</v>
       </c>
       <c r="AG110" t="n">
-        <v>8.079885945293769</v>
+        <v>17.39195288914287</v>
       </c>
       <c r="AH110" t="n">
-        <v>4.978236765319409</v>
+        <v>23.0797578659776</v>
       </c>
       <c r="AI110" t="n">
-        <v>23.66723676531942</v>
+        <v>4.390757865977591</v>
       </c>
       <c r="AJ110" t="n">
-        <v>8.900236765319448</v>
+        <v>19.15775786597756</v>
       </c>
       <c r="AK110" t="n">
-        <v>4.4632679228895</v>
+        <v>23.73742891775558</v>
       </c>
       <c r="AL110" t="n">
-        <v>23.15226792288951</v>
+        <v>5.048428917755572</v>
       </c>
       <c r="AM110" t="n">
-        <v>8.38526792288954</v>
+        <v>19.81542891775554</v>
       </c>
       <c r="AN110" t="n">
-        <v>4.201474073377357</v>
+        <v>22.34510540026506</v>
       </c>
       <c r="AO110" t="n">
-        <v>18.53367589088177</v>
+        <v>4.041329585138946</v>
       </c>
       <c r="AP110" t="n">
-        <v>7.612382706680288</v>
+        <v>17.98900521797457</v>
       </c>
       <c r="AQ110" t="n">
-        <v>2.737370991133005</v>
+        <v>25.94158644505904</v>
       </c>
       <c r="AR110" t="n">
-        <v>21.42637099113301</v>
+        <v>7.252586445059038</v>
       </c>
       <c r="AS110" t="n">
-        <v>6.659370991133045</v>
+        <v>22.01958644505901</v>
       </c>
       <c r="AT110" t="n">
-        <v>2.576809962377277</v>
+        <v>24.41997763840973</v>
       </c>
       <c r="AU110" t="n">
-        <v>17.15207412034343</v>
+        <v>5.805784858356578</v>
       </c>
       <c r="AV110" t="n">
-        <v>6.045564797266569</v>
+        <v>19.99000158421377</v>
       </c>
     </row>
     <row r="111">
@@ -18181,7 +18181,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S111" t="n">
-        <v>115.117117444246</v>
+        <v>147.0170415553021</v>
       </c>
       <c r="T111" t="n">
         <v>975.3990845285531</v>
@@ -18191,17 +18191,17 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>67c5e24ffb8374ec0ab47b01</t>
+          <t>67c8a6d11acbd796e0557b55</t>
         </is>
       </c>
       <c r="W111" t="n">
-        <v>110.8633376124099</v>
+        <v>141.5845034568126</v>
       </c>
       <c r="X111" t="n">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="Y111" t="n">
-        <v>113.0934969352848</v>
+        <v>144.4326587366288</v>
       </c>
       <c r="Z111" t="n">
         <v>892.2377196</v>
@@ -18221,58 +18221,58 @@
         <v>939.7521936483706</v>
       </c>
       <c r="AE111" t="n">
-        <v>4.317627593591001</v>
+        <v>22.19676475999223</v>
       </c>
       <c r="AF111" t="n">
-        <v>20.34993130700214</v>
+        <v>1.721774475394869</v>
       </c>
       <c r="AG111" t="n">
-        <v>12.20484053659884</v>
+        <v>12.12393859181355</v>
       </c>
       <c r="AH111" t="n">
-        <v>5.002662387590149</v>
+        <v>25.7185034568126</v>
       </c>
       <c r="AI111" t="n">
-        <v>28.32466238759014</v>
+        <v>2.39650345681261</v>
       </c>
       <c r="AJ111" t="n">
-        <v>15.41166238759018</v>
+        <v>15.30950345681256</v>
       </c>
       <c r="AK111" t="n">
-        <v>2.772503064715153</v>
+        <v>28.56665873662884</v>
       </c>
       <c r="AL111" t="n">
-        <v>26.09450306471514</v>
+        <v>5.24465873662885</v>
       </c>
       <c r="AM111" t="n">
-        <v>13.18150306471519</v>
+        <v>18.1576587366288</v>
       </c>
       <c r="AN111" t="n">
-        <v>2.392853006675947</v>
+        <v>24.65491061798011</v>
       </c>
       <c r="AO111" t="n">
-        <v>18.74766723044741</v>
+        <v>3.768039440633424</v>
       </c>
       <c r="AP111" t="n">
-        <v>10.43872743196609</v>
+        <v>14.37945653266981</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.748882555753994</v>
+        <v>31.15104155530214</v>
       </c>
       <c r="AR111" t="n">
-        <v>24.07088255575398</v>
+        <v>7.829041555302155</v>
       </c>
       <c r="AS111" t="n">
-        <v>11.15788255575403</v>
+        <v>20.74204155530211</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.646335038539342</v>
+        <v>26.885403444757</v>
       </c>
       <c r="AU111" t="n">
-        <v>17.29379153070235</v>
+        <v>5.624796358380144</v>
       </c>
       <c r="AV111" t="n">
-        <v>8.836177038807385</v>
+        <v>16.42608715525805</v>
       </c>
     </row>
     <row r="112">
@@ -18447,7 +18447,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>67c5e253fb8374ec0ab47ba0</t>
+          <t>67c8a6d51acbd796e0557bf4</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -18703,7 +18703,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>67c5e24ffb8374ec0ab47b16</t>
+          <t>67c8a6d11acbd796e0557b6a</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -18863,7 +18863,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>67c5e250fb8374ec0ab47b5a</t>
+          <t>67c8a6d31acbd796e0557bae</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -19407,7 +19407,7 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>67c5e251fb8374ec0ab47b77</t>
+          <t>67c8a6d41acbd796e0557bcb</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -19567,7 +19567,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>67c5e251fb8374ec0ab47b65</t>
+          <t>67c8a6d31acbd796e0557bb9</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -20495,7 +20495,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>67c5e24efb8374ec0ab47ae8</t>
+          <t>67c8a6d01acbd796e0557b3c</t>
         </is>
       </c>
       <c r="W131" t="n">
@@ -20655,7 +20655,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>67c5e252fb8374ec0ab47b93</t>
+          <t>67c8a6d51acbd796e0557be7</t>
         </is>
       </c>
       <c r="W132" t="n">
@@ -20815,7 +20815,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>67c5e250fb8374ec0ab47b42</t>
+          <t>67c8a6d21acbd796e0557b96</t>
         </is>
       </c>
       <c r="W133" t="n">

--- a/fifty_one/measurements/Updated_full_body_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_body_Filtered_Data_with_real_length.xlsx
@@ -751,7 +751,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>67c8a6c51acbd796e05577c8</t>
+          <t>67cd347debee1dc3d760a51c</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -911,7 +911,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>67c8a6c51acbd796e05577c6</t>
+          <t>67cd347debee1dc3d760a51a</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>67c8a6c51acbd796e05577ca</t>
+          <t>67cd347debee1dc3d760a51e</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>67c8a6c11acbd796e0557614</t>
+          <t>67cd3473ebee1dc3d760a368</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>67c8a6c11acbd796e0557618</t>
+          <t>67cd3473ebee1dc3d760a36c</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>67c8a6c11acbd796e0557616</t>
+          <t>67cd3473ebee1dc3d760a36a</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>67c8a6c11acbd796e055761a</t>
+          <t>67cd3473ebee1dc3d760a36e</t>
         </is>
       </c>
       <c r="W8" t="n">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>67c8a6c81acbd796e05578de</t>
+          <t>67cd3484ebee1dc3d760a632</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>67c8a6c81acbd796e05578e0</t>
+          <t>67cd3484ebee1dc3d760a634</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>67c8a6c81acbd796e05578e2</t>
+          <t>67cd3484ebee1dc3d760a636</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>67c8a6cc1acbd796e0557a30</t>
+          <t>67cd348cebee1dc3d760a784</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>67c8a6cc1acbd796e0557a2e</t>
+          <t>67cd348cebee1dc3d760a782</t>
         </is>
       </c>
       <c r="W13" t="n">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>67c8a6c51acbd796e0557799</t>
+          <t>67cd347debee1dc3d760a4ed</t>
         </is>
       </c>
       <c r="W14" t="n">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>67c8a6c51acbd796e055779d</t>
+          <t>67cd347debee1dc3d760a4f1</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>67c8a6c51acbd796e0557797</t>
+          <t>67cd347debee1dc3d760a4eb</t>
         </is>
       </c>
       <c r="W16" t="n">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>67c8a6c51acbd796e055779b</t>
+          <t>67cd347debee1dc3d760a4ef</t>
         </is>
       </c>
       <c r="W17" t="n">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>67c8a6c91acbd796e0557938</t>
+          <t>67cd3486ebee1dc3d760a68c</t>
         </is>
       </c>
       <c r="W18" t="n">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>67c8a6c91acbd796e055793a</t>
+          <t>67cd3486ebee1dc3d760a68e</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>67c8a6c21acbd796e0557696</t>
+          <t>67cd3476ebee1dc3d760a3ea</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>67c8a6c21acbd796e0557694</t>
+          <t>67cd3476ebee1dc3d760a3e8</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>67c8a6c21acbd796e0557692</t>
+          <t>67cd3476ebee1dc3d760a3e6</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>67c8a6bf1acbd796e05575c4</t>
+          <t>67cd346febee1dc3d760a318</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>67c8a6bf1acbd796e05575c6</t>
+          <t>67cd346febee1dc3d760a31a</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>67c8a6bf1acbd796e05575c8</t>
+          <t>67cd346febee1dc3d760a31c</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>67c8a6c51acbd796e055776a</t>
+          <t>67cd347bebee1dc3d760a4be</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>67c8a6c51acbd796e0557768</t>
+          <t>67cd347bebee1dc3d760a4bc</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>67c8a6c51acbd796e055776e</t>
+          <t>67cd347bebee1dc3d760a4c2</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>67c8a6c61acbd796e0557824</t>
+          <t>67cd3480ebee1dc3d760a578</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>67c8a6c61acbd796e0557828</t>
+          <t>67cd3480ebee1dc3d760a57c</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>67c8a6c61acbd796e055782e</t>
+          <t>67cd3480ebee1dc3d760a582</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>67c8a6c61acbd796e0557826</t>
+          <t>67cd3480ebee1dc3d760a57a</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>67c8a6c61acbd796e055782a</t>
+          <t>67cd3480ebee1dc3d760a57e</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>67c8a6c11acbd796e0557654</t>
+          <t>67cd3474ebee1dc3d760a3a8</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>67c8a6c11acbd796e0557656</t>
+          <t>67cd3474ebee1dc3d760a3aa</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>67c8a6c11acbd796e0557656</t>
+          <t>67cd3474ebee1dc3d760a3aa</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>67c8a6c61acbd796e05577f1</t>
+          <t>67cd347eebee1dc3d760a545</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>67c8a6c61acbd796e05577ed</t>
+          <t>67cd347eebee1dc3d760a541</t>
         </is>
       </c>
       <c r="W38" t="n">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>67c8a6c61acbd796e05577e9</t>
+          <t>67cd347eebee1dc3d760a53d</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>67c8a6c61acbd796e05577eb</t>
+          <t>67cd347eebee1dc3d760a53f</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>67c8a6c61acbd796e05577ef</t>
+          <t>67cd347eebee1dc3d760a543</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>67c8a6c81acbd796e0557903</t>
+          <t>67cd3485ebee1dc3d760a657</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>67c8a6c81acbd796e05578ff</t>
+          <t>67cd3485ebee1dc3d760a653</t>
         </is>
       </c>
       <c r="W43" t="n">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>67c8a6c81acbd796e0557901</t>
+          <t>67cd3485ebee1dc3d760a655</t>
         </is>
       </c>
       <c r="W44" t="n">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>67c8a6c81acbd796e05578fd</t>
+          <t>67cd3485ebee1dc3d760a651</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>67c8a6c71acbd796e055786c</t>
+          <t>67cd3482ebee1dc3d760a5c0</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>67c8a6c71acbd796e055786e</t>
+          <t>67cd3482ebee1dc3d760a5c2</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>67c8a6c71acbd796e0557872</t>
+          <t>67cd3482ebee1dc3d760a5c6</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>67c8a6c71acbd796e0557870</t>
+          <t>67cd3482ebee1dc3d760a5c4</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>67c8a6c11acbd796e055763f</t>
+          <t>67cd3474ebee1dc3d760a393</t>
         </is>
       </c>
       <c r="W50" t="n">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>67c8a6c11acbd796e0557641</t>
+          <t>67cd3474ebee1dc3d760a395</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>67c8a6cd1acbd796e0557a43</t>
+          <t>67cd348cebee1dc3d760a797</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>67c8a6cd1acbd796e0557a45</t>
+          <t>67cd348cebee1dc3d760a799</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>67c8a6cd1acbd796e0557a47</t>
+          <t>67cd348cebee1dc3d760a79b</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>67c8a6c81acbd796e05578b2</t>
+          <t>67cd3483ebee1dc3d760a606</t>
         </is>
       </c>
       <c r="W55" t="n">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>67c8a6c81acbd796e05578ae</t>
+          <t>67cd3483ebee1dc3d760a602</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>67c8a6c81acbd796e05578ac</t>
+          <t>67cd3483ebee1dc3d760a600</t>
         </is>
       </c>
       <c r="W57" t="n">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>67c8a6ca1acbd796e055798e</t>
+          <t>67cd3488ebee1dc3d760a6e2</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>67c8a6ca1acbd796e055798c</t>
+          <t>67cd3488ebee1dc3d760a6e0</t>
         </is>
       </c>
       <c r="W59" t="n">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>67c8a6ca1acbd796e0557990</t>
+          <t>67cd3488ebee1dc3d760a6e4</t>
         </is>
       </c>
       <c r="W60" t="n">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>67c8a6ca1acbd796e0557992</t>
+          <t>67cd3488ebee1dc3d760a6e6</t>
         </is>
       </c>
       <c r="W61" t="n">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>67c8a6c31acbd796e05576e0</t>
+          <t>67cd3478ebee1dc3d760a434</t>
         </is>
       </c>
       <c r="W62" t="n">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>67c8a6c31acbd796e05576e2</t>
+          <t>67cd3478ebee1dc3d760a436</t>
         </is>
       </c>
       <c r="W63" t="n">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>67c8a6c31acbd796e05576de</t>
+          <t>67cd3478ebee1dc3d760a432</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>67c8a6c41acbd796e055771a</t>
+          <t>67cd3479ebee1dc3d760a46e</t>
         </is>
       </c>
       <c r="W65" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>67c8a6c41acbd796e055771e</t>
+          <t>67cd3479ebee1dc3d760a472</t>
         </is>
       </c>
       <c r="W66" t="n">
@@ -11151,7 +11151,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>67c8a6c41acbd796e0557703</t>
+          <t>67cd3479ebee1dc3d760a457</t>
         </is>
       </c>
       <c r="W67" t="n">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>67c8a6c41acbd796e0557701</t>
+          <t>67cd3479ebee1dc3d760a455</t>
         </is>
       </c>
       <c r="W68" t="n">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>67c8a6cb1acbd796e05579c7</t>
+          <t>67cd3489ebee1dc3d760a71b</t>
         </is>
       </c>
       <c r="W69" t="n">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>67c8a6cb1acbd796e05579c3</t>
+          <t>67cd3489ebee1dc3d760a717</t>
         </is>
       </c>
       <c r="W70" t="n">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>67c8a6cb1acbd796e05579bf</t>
+          <t>67cd3489ebee1dc3d760a713</t>
         </is>
       </c>
       <c r="W71" t="n">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>67c8a6c41acbd796e055773b</t>
+          <t>67cd347aebee1dc3d760a48f</t>
         </is>
       </c>
       <c r="W72" t="n">
@@ -12111,7 +12111,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>67c8a6c41acbd796e0557737</t>
+          <t>67cd347aebee1dc3d760a48b</t>
         </is>
       </c>
       <c r="W73" t="n">
@@ -12271,7 +12271,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>67c8a6c41acbd796e055773d</t>
+          <t>67cd347aebee1dc3d760a491</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>67c8a6c41acbd796e0557739</t>
+          <t>67cd347aebee1dc3d760a48d</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>67c8a6ce1acbd796e0557ab7</t>
+          <t>67cd3490ebee1dc3d760a80b</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>67c8a6ce1acbd796e0557abb</t>
+          <t>67cd3490ebee1dc3d760a80f</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>67c8a6ce1acbd796e0557ab9</t>
+          <t>67cd3490ebee1dc3d760a80d</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>67c8a6ce1acbd796e0557abd</t>
+          <t>67cd3490ebee1dc3d760a811</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>67c8a6c31acbd796e05576c6</t>
+          <t>67cd3477ebee1dc3d760a41a</t>
         </is>
       </c>
       <c r="W80" t="n">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>67c8a6ce1acbd796e0557ae4</t>
+          <t>67cd3491ebee1dc3d760a838</t>
         </is>
       </c>
       <c r="W81" t="n">
@@ -13551,7 +13551,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>67c8a6ce1acbd796e0557ae2</t>
+          <t>67cd3491ebee1dc3d760a836</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -13711,7 +13711,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>67c8a6ce1acbd796e0557ae6</t>
+          <t>67cd3491ebee1dc3d760a83a</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>67c8a6c91acbd796e0557951</t>
+          <t>67cd3487ebee1dc3d760a6a5</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>67c8a6c91acbd796e0557953</t>
+          <t>67cd3487ebee1dc3d760a6a7</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>67c8a6ca1acbd796e055796a</t>
+          <t>67cd3487ebee1dc3d760a6be</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>67c8a6cd1acbd796e0557a62</t>
+          <t>67cd348debee1dc3d760a7b6</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -14511,7 +14511,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>67c8a6ca1acbd796e0557981</t>
+          <t>67cd3488ebee1dc3d760a6d5</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>67c8a6c21acbd796e0557679</t>
+          <t>67cd3475ebee1dc3d760a3cd</t>
         </is>
       </c>
       <c r="W89" t="n">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>67c8a6c21acbd796e0557677</t>
+          <t>67cd3475ebee1dc3d760a3cb</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>67c8a6c01acbd796e05575eb</t>
+          <t>67cd3472ebee1dc3d760a33f</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -15151,7 +15151,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>67c8a6c01acbd796e05575ed</t>
+          <t>67cd3472ebee1dc3d760a341</t>
         </is>
       </c>
       <c r="W92" t="n">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>67c8a6c01acbd796e05575e7</t>
+          <t>67cd3472ebee1dc3d760a33b</t>
         </is>
       </c>
       <c r="W93" t="n">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>67c8a6c01acbd796e05575e9</t>
+          <t>67cd3472ebee1dc3d760a33d</t>
         </is>
       </c>
       <c r="W94" t="n">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>67c8a6cb1acbd796e05579ff</t>
+          <t>67cd348bebee1dc3d760a753</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>67c8a6cb1acbd796e0557a01</t>
+          <t>67cd348bebee1dc3d760a755</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>67c8a6cb1acbd796e0557a05</t>
+          <t>67cd348bebee1dc3d760a759</t>
         </is>
       </c>
       <c r="W97" t="n">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>67c8a6cb1acbd796e0557a03</t>
+          <t>67cd348bebee1dc3d760a757</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -16271,7 +16271,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>67c8a6cb1acbd796e05579ec</t>
+          <t>67cd348aebee1dc3d760a740</t>
         </is>
       </c>
       <c r="W99" t="n">
@@ -16431,7 +16431,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>67c8a6cb1acbd796e05579ea</t>
+          <t>67cd348aebee1dc3d760a73e</t>
         </is>
       </c>
       <c r="W100" t="n">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>67c8a6c81acbd796e05578cd</t>
+          <t>67cd3484ebee1dc3d760a621</t>
         </is>
       </c>
       <c r="W101" t="n">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>67c8a6ce1acbd796e0557a82</t>
+          <t>67cd348febee1dc3d760a7d6</t>
         </is>
       </c>
       <c r="W102" t="n">
@@ -16911,7 +16911,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>67c8a6ce1acbd796e0557a8a</t>
+          <t>67cd348febee1dc3d760a7de</t>
         </is>
       </c>
       <c r="W103" t="n">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>67c8a6ce1acbd796e0557a8a</t>
+          <t>67cd348febee1dc3d760a7de</t>
         </is>
       </c>
       <c r="W104" t="n">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>67c8a6ce1acbd796e0557a84</t>
+          <t>67cd348febee1dc3d760a7d8</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -17391,7 +17391,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>67c8a6ce1acbd796e0557a86</t>
+          <t>67cd348febee1dc3d760a7da</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>67c8a6cd1acbd796e0557a71</t>
+          <t>67cd348eebee1dc3d760a7c5</t>
         </is>
       </c>
       <c r="W107" t="n">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>67c8a6cf1acbd796e0557b0f</t>
+          <t>67cd3492ebee1dc3d760a863</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -17871,7 +17871,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>67c8a6cf1acbd796e0557b0d</t>
+          <t>67cd3492ebee1dc3d760a861</t>
         </is>
       </c>
       <c r="W109" t="n">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>67c8a6d11acbd796e0557b51</t>
+          <t>67cd3494ebee1dc3d760a8aa</t>
         </is>
       </c>
       <c r="W110" t="n">
@@ -18191,7 +18191,7 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>67c8a6d11acbd796e0557b55</t>
+          <t>67cd3494ebee1dc3d760a8ae</t>
         </is>
       </c>
       <c r="W111" t="n">
@@ -18447,7 +18447,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>67c8a6d51acbd796e0557bf4</t>
+          <t>67cd3499ebee1dc3d760a98c</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -18703,7 +18703,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>67c8a6d11acbd796e0557b6a</t>
+          <t>67cd3495ebee1dc3d760a8c3</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -18863,7 +18863,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>67c8a6d31acbd796e0557bae</t>
+          <t>67cd3496ebee1dc3d760a923</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -19407,7 +19407,7 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>67c8a6d41acbd796e0557bcb</t>
+          <t>67cd3497ebee1dc3d760a940</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -19567,7 +19567,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>67c8a6d31acbd796e0557bb9</t>
+          <t>67cd3496ebee1dc3d760a92e</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -20100,36 +20100,100 @@
       <c r="R127" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
-      <c r="AA127" t="inlineStr"/>
-      <c r="AB127" t="inlineStr"/>
-      <c r="AC127" t="inlineStr"/>
-      <c r="AD127" t="inlineStr"/>
-      <c r="AE127" t="inlineStr"/>
-      <c r="AF127" t="inlineStr"/>
-      <c r="AG127" t="inlineStr"/>
-      <c r="AH127" t="inlineStr"/>
-      <c r="AI127" t="inlineStr"/>
-      <c r="AJ127" t="inlineStr"/>
-      <c r="AK127" t="inlineStr"/>
-      <c r="AL127" t="inlineStr"/>
-      <c r="AM127" t="inlineStr"/>
-      <c r="AN127" t="inlineStr"/>
-      <c r="AO127" t="inlineStr"/>
-      <c r="AP127" t="inlineStr"/>
-      <c r="AQ127" t="inlineStr"/>
-      <c r="AR127" t="inlineStr"/>
-      <c r="AS127" t="inlineStr"/>
-      <c r="AT127" t="inlineStr"/>
-      <c r="AU127" t="inlineStr"/>
-      <c r="AV127" t="inlineStr"/>
+      <c r="S127" t="n">
+        <v>115.1480817623138</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1094.347298814202</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1161.728497453288</v>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>67cd3497ebee1dc3d760a950</t>
+        </is>
+      </c>
+      <c r="W127" t="n">
+        <v>122.2201544875915</v>
+      </c>
+      <c r="X127" t="n">
+        <v>370</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>124.6472079775525</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1053.4855592</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>1028.5247754</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1028.5247754</v>
+      </c>
+      <c r="AC127" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="AD127" t="n">
+        <v>1161.728497453288</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>15.08922604202744</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>6.735967659262275</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>6.735967659262247</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>16.02415448759146</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>7.713154487591453</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>7.713154487591424</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>18.45120797755253</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>10.14020797755252</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>10.14020797755249</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>17.37467322455886</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>8.855535449843696</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>8.855535449843668</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>8.952081762313753</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>0.6410817623137461</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>0.6410817623137177</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>8.429773025644801</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>0.5598625082429425</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>0.5598625082429175</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -20196,36 +20260,100 @@
       <c r="R128" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
-      <c r="AA128" t="inlineStr"/>
-      <c r="AB128" t="inlineStr"/>
-      <c r="AC128" t="inlineStr"/>
-      <c r="AD128" t="inlineStr"/>
-      <c r="AE128" t="inlineStr"/>
-      <c r="AF128" t="inlineStr"/>
-      <c r="AG128" t="inlineStr"/>
-      <c r="AH128" t="inlineStr"/>
-      <c r="AI128" t="inlineStr"/>
-      <c r="AJ128" t="inlineStr"/>
-      <c r="AK128" t="inlineStr"/>
-      <c r="AL128" t="inlineStr"/>
-      <c r="AM128" t="inlineStr"/>
-      <c r="AN128" t="inlineStr"/>
-      <c r="AO128" t="inlineStr"/>
-      <c r="AP128" t="inlineStr"/>
-      <c r="AQ128" t="inlineStr"/>
-      <c r="AR128" t="inlineStr"/>
-      <c r="AS128" t="inlineStr"/>
-      <c r="AT128" t="inlineStr"/>
-      <c r="AU128" t="inlineStr"/>
-      <c r="AV128" t="inlineStr"/>
+      <c r="S128" t="n">
+        <v>119.8093424124937</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1074.24225440628</v>
+      </c>
+      <c r="U128" t="n">
+        <v>1053.232266881302</v>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>67cd3495ebee1dc3d760a8e5</t>
+        </is>
+      </c>
+      <c r="W128" t="n">
+        <v>117.4448286733992</v>
+      </c>
+      <c r="X128" t="n">
+        <v>385</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>117.5874773387137</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1096.7025</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>1062.3211184</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1020.3718819</v>
+      </c>
+      <c r="AC128" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="AD128" t="n">
+        <v>1053.232266881302</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>3.08313293882769</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>4.690745649503575</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>3.179010335117436</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>3.736171326600783</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>5.780171326600779</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>3.856171326600801</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>3.5935226612863</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>5.637522661286297</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>3.713522661286319</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>2.965417566521402</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>4.574982886010385</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>3.061411415640694</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.371657587506263</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>3.41565758750626</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.491657587506282</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>1.131908127104301</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>2.771886863466229</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.229715820567251</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -20292,36 +20420,100 @@
       <c r="R129" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
-      <c r="AA129" t="inlineStr"/>
-      <c r="AB129" t="inlineStr"/>
-      <c r="AC129" t="inlineStr"/>
-      <c r="AD129" t="inlineStr"/>
-      <c r="AE129" t="inlineStr"/>
-      <c r="AF129" t="inlineStr"/>
-      <c r="AG129" t="inlineStr"/>
-      <c r="AH129" t="inlineStr"/>
-      <c r="AI129" t="inlineStr"/>
-      <c r="AJ129" t="inlineStr"/>
-      <c r="AK129" t="inlineStr"/>
-      <c r="AL129" t="inlineStr"/>
-      <c r="AM129" t="inlineStr"/>
-      <c r="AN129" t="inlineStr"/>
-      <c r="AO129" t="inlineStr"/>
-      <c r="AP129" t="inlineStr"/>
-      <c r="AQ129" t="inlineStr"/>
-      <c r="AR129" t="inlineStr"/>
-      <c r="AS129" t="inlineStr"/>
-      <c r="AT129" t="inlineStr"/>
-      <c r="AU129" t="inlineStr"/>
-      <c r="AV129" t="inlineStr"/>
+      <c r="S129" t="n">
+        <v>144.8680857026314</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1323.456519216285</v>
+      </c>
+      <c r="U129" t="n">
+        <v>1104.867317745684</v>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>67cd3498ebee1dc3d760a962</t>
+        </is>
+      </c>
+      <c r="W129" t="n">
+        <v>120.897558175534</v>
+      </c>
+      <c r="X129" t="n">
+        <v>385</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>123.3522412605193</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1298.274307</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>1309.27471</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1339.6242986</v>
+      </c>
+      <c r="AC129" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="AD129" t="n">
+        <v>1104.867317745684</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>3.404822525320596</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>23.49224264299836</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>22.30333917588851</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>4.261441824466004</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>37.12244182446601</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>34.70444182446606</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.806758739480742</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>34.66775873948075</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>32.2497587394808</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.443570769565706</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>21.93884238671101</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>20.72579962949113</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>19.70908570263144</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>13.15191429736856</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>10.73391429736861</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>15.7472380752734</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>8.322942853669511</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>6.898313837462636</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -20388,36 +20580,100 @@
       <c r="R130" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
-      <c r="AA130" t="inlineStr"/>
-      <c r="AB130" t="inlineStr"/>
-      <c r="AC130" t="inlineStr"/>
-      <c r="AD130" t="inlineStr"/>
-      <c r="AE130" t="inlineStr"/>
-      <c r="AF130" t="inlineStr"/>
-      <c r="AG130" t="inlineStr"/>
-      <c r="AH130" t="inlineStr"/>
-      <c r="AI130" t="inlineStr"/>
-      <c r="AJ130" t="inlineStr"/>
-      <c r="AK130" t="inlineStr"/>
-      <c r="AL130" t="inlineStr"/>
-      <c r="AM130" t="inlineStr"/>
-      <c r="AN130" t="inlineStr"/>
-      <c r="AO130" t="inlineStr"/>
-      <c r="AP130" t="inlineStr"/>
-      <c r="AQ130" t="inlineStr"/>
-      <c r="AR130" t="inlineStr"/>
-      <c r="AS130" t="inlineStr"/>
-      <c r="AT130" t="inlineStr"/>
-      <c r="AU130" t="inlineStr"/>
-      <c r="AV130" t="inlineStr"/>
+      <c r="S130" t="n">
+        <v>135.6001826226669</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1048.903313015057</v>
+      </c>
+      <c r="U130" t="n">
+        <v>981.5392833952193</v>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>67cd3498ebee1dc3d760a96f</t>
+        </is>
+      </c>
+      <c r="W130" t="n">
+        <v>126.893613360852</v>
+      </c>
+      <c r="X130" t="n">
+        <v>455</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>129.5076045550582</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1062.0131907</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>1014.079325</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1062.6072512</v>
+      </c>
+      <c r="AC130" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="AD130" t="n">
+        <v>981.5392833952193</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>9.59224451872581</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>23.53595415490502</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>16.35281681673028</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>13.46338663914798</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>39.05838663914798</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>24.80738663914801</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>10.84939544494176</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>36.44439544494176</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>22.19339544494179</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>7.729857039507658</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>21.96080519966121</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>14.62969620829248</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>4.756817377333135</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>30.35181737733313</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>16.10081737733316</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>3.389084532537127</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>18.28951587045238</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>10.61352092427417</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -20495,7 +20751,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>67c8a6d01acbd796e0557b3c</t>
+          <t>67cd3494ebee1dc3d760a895</t>
         </is>
       </c>
       <c r="W131" t="n">
@@ -20655,7 +20911,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>67c8a6d51acbd796e0557be7</t>
+          <t>67cd3498ebee1dc3d760a97f</t>
         </is>
       </c>
       <c r="W132" t="n">
@@ -20815,7 +21071,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>67c8a6d21acbd796e0557b96</t>
+          <t>67cd3496ebee1dc3d760a90b</t>
         </is>
       </c>
       <c r="W133" t="n">

--- a/fifty_one/measurements/Updated_full_body_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_body_Filtered_Data_with_real_length.xlsx
@@ -751,7 +751,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a51c</t>
+          <t>67ceb73847361997ddc3c691</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -911,7 +911,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a51a</t>
+          <t>67ceb73847361997ddc3c68f</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a51e</t>
+          <t>67ceb73847361997ddc3c693</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>67cd3473ebee1dc3d760a368</t>
+          <t>67ceb73547361997ddc3c4dd</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>67cd3473ebee1dc3d760a36c</t>
+          <t>67ceb73547361997ddc3c4e1</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>67cd3473ebee1dc3d760a36a</t>
+          <t>67ceb73547361997ddc3c4df</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>67cd3473ebee1dc3d760a36e</t>
+          <t>67ceb73547361997ddc3c4e3</t>
         </is>
       </c>
       <c r="W8" t="n">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>67cd3484ebee1dc3d760a632</t>
+          <t>67ceb73947361997ddc3c7a7</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>67cd3484ebee1dc3d760a634</t>
+          <t>67ceb73947361997ddc3c7a9</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>67cd3484ebee1dc3d760a636</t>
+          <t>67ceb73947361997ddc3c7ab</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>67cd348cebee1dc3d760a784</t>
+          <t>67ceb73c47361997ddc3c8f9</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>67cd348cebee1dc3d760a782</t>
+          <t>67ceb73c47361997ddc3c8f7</t>
         </is>
       </c>
       <c r="W13" t="n">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a4ed</t>
+          <t>67ceb73747361997ddc3c662</t>
         </is>
       </c>
       <c r="W14" t="n">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a4f1</t>
+          <t>67ceb73747361997ddc3c666</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a4eb</t>
+          <t>67ceb73747361997ddc3c660</t>
         </is>
       </c>
       <c r="W16" t="n">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a4ef</t>
+          <t>67ceb73747361997ddc3c664</t>
         </is>
       </c>
       <c r="W17" t="n">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>67cd3486ebee1dc3d760a68c</t>
+          <t>67ceb73a47361997ddc3c801</t>
         </is>
       </c>
       <c r="W18" t="n">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>67cd3486ebee1dc3d760a68e</t>
+          <t>67ceb73a47361997ddc3c803</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>67cd3476ebee1dc3d760a3ea</t>
+          <t>67ceb73647361997ddc3c55f</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>67cd3476ebee1dc3d760a3e8</t>
+          <t>67ceb73647361997ddc3c55d</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>67cd3476ebee1dc3d760a3e6</t>
+          <t>67ceb73647361997ddc3c55b</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>67cd346febee1dc3d760a318</t>
+          <t>67ceb73347361997ddc3c48d</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>67cd346febee1dc3d760a31a</t>
+          <t>67ceb73347361997ddc3c48f</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>67cd346febee1dc3d760a31c</t>
+          <t>67ceb73347361997ddc3c491</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>67cd347bebee1dc3d760a4be</t>
+          <t>67ceb73747361997ddc3c633</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>67cd347bebee1dc3d760a4bc</t>
+          <t>67ceb73747361997ddc3c631</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>67cd347bebee1dc3d760a4c2</t>
+          <t>67ceb73747361997ddc3c637</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>67cd3480ebee1dc3d760a578</t>
+          <t>67ceb73847361997ddc3c6ed</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>67cd3480ebee1dc3d760a57c</t>
+          <t>67ceb73847361997ddc3c6f1</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>67cd3480ebee1dc3d760a582</t>
+          <t>67ceb73847361997ddc3c6f7</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>67cd3480ebee1dc3d760a57a</t>
+          <t>67ceb73847361997ddc3c6ef</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>67cd3480ebee1dc3d760a57e</t>
+          <t>67ceb73847361997ddc3c6f3</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>67cd3474ebee1dc3d760a3a8</t>
+          <t>67ceb73547361997ddc3c51d</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>67cd3474ebee1dc3d760a3aa</t>
+          <t>67ceb73547361997ddc3c51f</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>67cd3474ebee1dc3d760a3aa</t>
+          <t>67ceb73547361997ddc3c51f</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>67cd347eebee1dc3d760a545</t>
+          <t>67ceb73847361997ddc3c6ba</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>67cd347eebee1dc3d760a541</t>
+          <t>67ceb73847361997ddc3c6b6</t>
         </is>
       </c>
       <c r="W38" t="n">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>67cd347eebee1dc3d760a53d</t>
+          <t>67ceb73847361997ddc3c6b2</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>67cd347eebee1dc3d760a53f</t>
+          <t>67ceb73847361997ddc3c6b4</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>67cd347eebee1dc3d760a543</t>
+          <t>67ceb73847361997ddc3c6b8</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>67cd3485ebee1dc3d760a657</t>
+          <t>67ceb73a47361997ddc3c7cc</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>67cd3485ebee1dc3d760a653</t>
+          <t>67ceb73a47361997ddc3c7c8</t>
         </is>
       </c>
       <c r="W43" t="n">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>67cd3485ebee1dc3d760a655</t>
+          <t>67ceb73a47361997ddc3c7ca</t>
         </is>
       </c>
       <c r="W44" t="n">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>67cd3485ebee1dc3d760a651</t>
+          <t>67ceb73a47361997ddc3c7c6</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>67cd3482ebee1dc3d760a5c0</t>
+          <t>67ceb73947361997ddc3c735</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>67cd3482ebee1dc3d760a5c2</t>
+          <t>67ceb73947361997ddc3c737</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>67cd3482ebee1dc3d760a5c6</t>
+          <t>67ceb73947361997ddc3c73b</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>67cd3482ebee1dc3d760a5c4</t>
+          <t>67ceb73947361997ddc3c739</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>67cd3474ebee1dc3d760a393</t>
+          <t>67ceb73547361997ddc3c508</t>
         </is>
       </c>
       <c r="W50" t="n">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>67cd3474ebee1dc3d760a395</t>
+          <t>67ceb73547361997ddc3c50a</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>67cd348cebee1dc3d760a797</t>
+          <t>67ceb73c47361997ddc3c90c</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>67cd348cebee1dc3d760a799</t>
+          <t>67ceb73c47361997ddc3c90e</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>67cd348cebee1dc3d760a79b</t>
+          <t>67ceb73c47361997ddc3c910</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>67cd3483ebee1dc3d760a606</t>
+          <t>67ceb73947361997ddc3c77b</t>
         </is>
       </c>
       <c r="W55" t="n">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>67cd3483ebee1dc3d760a602</t>
+          <t>67ceb73947361997ddc3c777</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>67cd3483ebee1dc3d760a600</t>
+          <t>67ceb73947361997ddc3c775</t>
         </is>
       </c>
       <c r="W57" t="n">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>67cd3488ebee1dc3d760a6e2</t>
+          <t>67ceb73a47361997ddc3c857</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>67cd3488ebee1dc3d760a6e0</t>
+          <t>67ceb73a47361997ddc3c855</t>
         </is>
       </c>
       <c r="W59" t="n">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>67cd3488ebee1dc3d760a6e4</t>
+          <t>67ceb73a47361997ddc3c859</t>
         </is>
       </c>
       <c r="W60" t="n">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>67cd3488ebee1dc3d760a6e6</t>
+          <t>67ceb73a47361997ddc3c85b</t>
         </is>
       </c>
       <c r="W61" t="n">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>67cd3478ebee1dc3d760a434</t>
+          <t>67ceb73647361997ddc3c5a9</t>
         </is>
       </c>
       <c r="W62" t="n">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>67cd3478ebee1dc3d760a436</t>
+          <t>67ceb73647361997ddc3c5ab</t>
         </is>
       </c>
       <c r="W63" t="n">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>67cd3478ebee1dc3d760a432</t>
+          <t>67ceb73647361997ddc3c5a7</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>67cd3479ebee1dc3d760a46e</t>
+          <t>67ceb73747361997ddc3c5e3</t>
         </is>
       </c>
       <c r="W65" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>67cd3479ebee1dc3d760a472</t>
+          <t>67ceb73747361997ddc3c5e7</t>
         </is>
       </c>
       <c r="W66" t="n">
@@ -11151,7 +11151,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>67cd3479ebee1dc3d760a457</t>
+          <t>67ceb73647361997ddc3c5cc</t>
         </is>
       </c>
       <c r="W67" t="n">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>67cd3479ebee1dc3d760a455</t>
+          <t>67ceb73647361997ddc3c5ca</t>
         </is>
       </c>
       <c r="W68" t="n">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>67cd3489ebee1dc3d760a71b</t>
+          <t>67ceb73b47361997ddc3c890</t>
         </is>
       </c>
       <c r="W69" t="n">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>67cd3489ebee1dc3d760a717</t>
+          <t>67ceb73b47361997ddc3c88c</t>
         </is>
       </c>
       <c r="W70" t="n">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>67cd3489ebee1dc3d760a713</t>
+          <t>67ceb73b47361997ddc3c888</t>
         </is>
       </c>
       <c r="W71" t="n">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>67cd347aebee1dc3d760a48f</t>
+          <t>67ceb73747361997ddc3c604</t>
         </is>
       </c>
       <c r="W72" t="n">
@@ -12111,7 +12111,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>67cd347aebee1dc3d760a48b</t>
+          <t>67ceb73747361997ddc3c600</t>
         </is>
       </c>
       <c r="W73" t="n">
@@ -12271,7 +12271,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>67cd347aebee1dc3d760a491</t>
+          <t>67ceb73747361997ddc3c606</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>67cd347aebee1dc3d760a48d</t>
+          <t>67ceb73747361997ddc3c602</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>67cd3490ebee1dc3d760a80b</t>
+          <t>67ceb73d47361997ddc3c980</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>67cd3490ebee1dc3d760a80f</t>
+          <t>67ceb73d47361997ddc3c984</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>67cd3490ebee1dc3d760a80d</t>
+          <t>67ceb73d47361997ddc3c982</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>67cd3490ebee1dc3d760a811</t>
+          <t>67ceb73d47361997ddc3c986</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>67cd3477ebee1dc3d760a41a</t>
+          <t>67ceb73647361997ddc3c58f</t>
         </is>
       </c>
       <c r="W80" t="n">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>67cd3491ebee1dc3d760a838</t>
+          <t>67ceb73d47361997ddc3c9ad</t>
         </is>
       </c>
       <c r="W81" t="n">
@@ -13551,7 +13551,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>67cd3491ebee1dc3d760a836</t>
+          <t>67ceb73d47361997ddc3c9ab</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -13711,7 +13711,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>67cd3491ebee1dc3d760a83a</t>
+          <t>67ceb73d47361997ddc3c9af</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>67cd3487ebee1dc3d760a6a5</t>
+          <t>67ceb73a47361997ddc3c81a</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>67cd3487ebee1dc3d760a6a7</t>
+          <t>67ceb73a47361997ddc3c81c</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>67cd3487ebee1dc3d760a6be</t>
+          <t>67ceb73a47361997ddc3c833</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>67cd348debee1dc3d760a7b6</t>
+          <t>67ceb73c47361997ddc3c92b</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -14511,7 +14511,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>67cd3488ebee1dc3d760a6d5</t>
+          <t>67ceb73a47361997ddc3c84a</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>67cd3475ebee1dc3d760a3cd</t>
+          <t>67ceb73647361997ddc3c542</t>
         </is>
       </c>
       <c r="W89" t="n">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>67cd3475ebee1dc3d760a3cb</t>
+          <t>67ceb73647361997ddc3c540</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>67cd3472ebee1dc3d760a33f</t>
+          <t>67ceb73447361997ddc3c4b4</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -15151,7 +15151,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>67cd3472ebee1dc3d760a341</t>
+          <t>67ceb73447361997ddc3c4b6</t>
         </is>
       </c>
       <c r="W92" t="n">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>67cd3472ebee1dc3d760a33b</t>
+          <t>67ceb73447361997ddc3c4b0</t>
         </is>
       </c>
       <c r="W93" t="n">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>67cd3472ebee1dc3d760a33d</t>
+          <t>67ceb73447361997ddc3c4b2</t>
         </is>
       </c>
       <c r="W94" t="n">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>67cd348bebee1dc3d760a753</t>
+          <t>67ceb73b47361997ddc3c8c8</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>67cd348bebee1dc3d760a755</t>
+          <t>67ceb73b47361997ddc3c8ca</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>67cd348bebee1dc3d760a759</t>
+          <t>67ceb73b47361997ddc3c8ce</t>
         </is>
       </c>
       <c r="W97" t="n">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>67cd348bebee1dc3d760a757</t>
+          <t>67ceb73b47361997ddc3c8cc</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -16271,7 +16271,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>67cd348aebee1dc3d760a740</t>
+          <t>67ceb73b47361997ddc3c8b5</t>
         </is>
       </c>
       <c r="W99" t="n">
@@ -16431,7 +16431,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>67cd348aebee1dc3d760a73e</t>
+          <t>67ceb73b47361997ddc3c8b3</t>
         </is>
       </c>
       <c r="W100" t="n">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>67cd3484ebee1dc3d760a621</t>
+          <t>67ceb73947361997ddc3c796</t>
         </is>
       </c>
       <c r="W101" t="n">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>67cd348febee1dc3d760a7d6</t>
+          <t>67ceb73c47361997ddc3c94b</t>
         </is>
       </c>
       <c r="W102" t="n">
@@ -16911,7 +16911,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>67cd348febee1dc3d760a7de</t>
+          <t>67ceb73c47361997ddc3c953</t>
         </is>
       </c>
       <c r="W103" t="n">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>67cd348febee1dc3d760a7de</t>
+          <t>67ceb73c47361997ddc3c953</t>
         </is>
       </c>
       <c r="W104" t="n">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>67cd348febee1dc3d760a7d8</t>
+          <t>67ceb73c47361997ddc3c94d</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -17391,7 +17391,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>67cd348febee1dc3d760a7da</t>
+          <t>67ceb73c47361997ddc3c94f</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>67cd348eebee1dc3d760a7c5</t>
+          <t>67ceb73c47361997ddc3c93a</t>
         </is>
       </c>
       <c r="W107" t="n">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>67cd3492ebee1dc3d760a863</t>
+          <t>67ceb73d47361997ddc3c9d8</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -17871,7 +17871,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>67cd3492ebee1dc3d760a861</t>
+          <t>67ceb73d47361997ddc3c9d6</t>
         </is>
       </c>
       <c r="W109" t="n">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>67cd3494ebee1dc3d760a8aa</t>
+          <t>67ceb73e47361997ddc3ca1f</t>
         </is>
       </c>
       <c r="W110" t="n">
@@ -18191,7 +18191,7 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>67cd3494ebee1dc3d760a8ae</t>
+          <t>67ceb73e47361997ddc3ca23</t>
         </is>
       </c>
       <c r="W111" t="n">
@@ -18447,7 +18447,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>67cd3499ebee1dc3d760a98c</t>
+          <t>67ceb73f47361997ddc3cb01</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -18703,7 +18703,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>67cd3495ebee1dc3d760a8c3</t>
+          <t>67ceb73e47361997ddc3ca38</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -18863,7 +18863,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>67cd3496ebee1dc3d760a923</t>
+          <t>67ceb73f47361997ddc3ca98</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -19407,7 +19407,7 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>67cd3497ebee1dc3d760a940</t>
+          <t>67ceb73f47361997ddc3cab5</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -19567,7 +19567,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>67cd3496ebee1dc3d760a92e</t>
+          <t>67ceb73f47361997ddc3caa3</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -20111,7 +20111,7 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>67cd3497ebee1dc3d760a950</t>
+          <t>67ceb73f47361997ddc3cac5</t>
         </is>
       </c>
       <c r="W127" t="n">
@@ -20271,7 +20271,7 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>67cd3495ebee1dc3d760a8e5</t>
+          <t>67ceb73e47361997ddc3ca5a</t>
         </is>
       </c>
       <c r="W128" t="n">
@@ -20431,7 +20431,7 @@
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>67cd3498ebee1dc3d760a962</t>
+          <t>67ceb73f47361997ddc3cad7</t>
         </is>
       </c>
       <c r="W129" t="n">
@@ -20591,7 +20591,7 @@
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>67cd3498ebee1dc3d760a96f</t>
+          <t>67ceb73f47361997ddc3cae4</t>
         </is>
       </c>
       <c r="W130" t="n">
@@ -20751,7 +20751,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>67cd3494ebee1dc3d760a895</t>
+          <t>67ceb73e47361997ddc3ca0a</t>
         </is>
       </c>
       <c r="W131" t="n">
@@ -20911,7 +20911,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>67cd3498ebee1dc3d760a97f</t>
+          <t>67ceb73f47361997ddc3caf4</t>
         </is>
       </c>
       <c r="W132" t="n">
@@ -21071,7 +21071,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>67cd3496ebee1dc3d760a90b</t>
+          <t>67ceb73f47361997ddc3ca80</t>
         </is>
       </c>
       <c r="W133" t="n">

--- a/fifty_one/measurements/Updated_full_body_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_body_Filtered_Data_with_real_length.xlsx
@@ -751,7 +751,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bd3</t>
+          <t>67e72c4acde4e894925703ff</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -911,7 +911,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bd1</t>
+          <t>67e72c4acde4e894925703fd</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bd5</t>
+          <t>67e72c4acde4e89492570401</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a1f</t>
+          <t>67e72c49cde4e8949257024b</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a23</t>
+          <t>67e72c49cde4e8949257024f</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a21</t>
+          <t>67e72c49cde4e8949257024d</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a25</t>
+          <t>67e72c49cde4e89492570251</t>
         </is>
       </c>
       <c r="W8" t="n">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ce9</t>
+          <t>67e72c4acde4e89492570515</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ceb</t>
+          <t>67e72c4acde4e89492570517</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ced</t>
+          <t>67e72c4acde4e89492570519</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e3b</t>
+          <t>67e72c4acde4e89492570667</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e39</t>
+          <t>67e72c4acde4e89492570665</t>
         </is>
       </c>
       <c r="W13" t="n">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356ba4</t>
+          <t>67e72c49cde4e894925703d0</t>
         </is>
       </c>
       <c r="W14" t="n">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356ba8</t>
+          <t>67e72c49cde4e894925703d4</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356ba2</t>
+          <t>67e72c49cde4e894925703ce</t>
         </is>
       </c>
       <c r="W16" t="n">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356ba6</t>
+          <t>67e72c49cde4e894925703d2</t>
         </is>
       </c>
       <c r="W17" t="n">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d43</t>
+          <t>67e72c4acde4e8949257056f</t>
         </is>
       </c>
       <c r="W18" t="n">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d45</t>
+          <t>67e72c4acde4e89492570571</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356aa1</t>
+          <t>67e72c49cde4e894925702cd</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a9f</t>
+          <t>67e72c49cde4e894925702cb</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a9d</t>
+          <t>67e72c49cde4e894925702c9</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569cf</t>
+          <t>67e72c48cde4e894925701fb</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569d1</t>
+          <t>67e72c48cde4e894925701fd</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569d3</t>
+          <t>67e72c48cde4e894925701ff</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b75</t>
+          <t>67e72c49cde4e894925703a1</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b73</t>
+          <t>67e72c49cde4e8949257039f</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b79</t>
+          <t>67e72c49cde4e894925703a5</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c2f</t>
+          <t>67e72c4acde4e8949257045b</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c33</t>
+          <t>67e72c4acde4e8949257045f</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c39</t>
+          <t>67e72c4acde4e89492570465</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c31</t>
+          <t>67e72c4acde4e8949257045d</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c35</t>
+          <t>67e72c4acde4e89492570461</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a5f</t>
+          <t>67e72c49cde4e8949257028b</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a61</t>
+          <t>67e72c49cde4e8949257028d</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a61</t>
+          <t>67e72c49cde4e8949257028d</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bfc</t>
+          <t>67e72c4acde4e89492570428</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bf8</t>
+          <t>67e72c4acde4e89492570424</t>
         </is>
       </c>
       <c r="W38" t="n">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bf4</t>
+          <t>67e72c4acde4e89492570420</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bf6</t>
+          <t>67e72c4acde4e89492570422</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bfa</t>
+          <t>67e72c4acde4e89492570426</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d0e</t>
+          <t>67e72c4acde4e8949257053a</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d0a</t>
+          <t>67e72c4acde4e89492570536</t>
         </is>
       </c>
       <c r="W43" t="n">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d0c</t>
+          <t>67e72c4acde4e89492570538</t>
         </is>
       </c>
       <c r="W44" t="n">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d08</t>
+          <t>67e72c4acde4e89492570534</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c77</t>
+          <t>67e72c4acde4e894925704a3</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c79</t>
+          <t>67e72c4acde4e894925704a5</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c7d</t>
+          <t>67e72c4acde4e894925704a9</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c7b</t>
+          <t>67e72c4acde4e894925704a7</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a4a</t>
+          <t>67e72c49cde4e89492570276</t>
         </is>
       </c>
       <c r="W50" t="n">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a4c</t>
+          <t>67e72c49cde4e89492570278</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e4e</t>
+          <t>67e72c4acde4e8949257067a</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e50</t>
+          <t>67e72c4acde4e8949257067c</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e52</t>
+          <t>67e72c4acde4e8949257067e</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356cbd</t>
+          <t>67e72c4acde4e894925704e9</t>
         </is>
       </c>
       <c r="W55" t="n">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356cb9</t>
+          <t>67e72c4acde4e894925704e5</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356cb7</t>
+          <t>67e72c4acde4e894925704e3</t>
         </is>
       </c>
       <c r="W57" t="n">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d99</t>
+          <t>67e72c4acde4e894925705c5</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d97</t>
+          <t>67e72c4acde4e894925705c3</t>
         </is>
       </c>
       <c r="W59" t="n">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d9b</t>
+          <t>67e72c4acde4e894925705c7</t>
         </is>
       </c>
       <c r="W60" t="n">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d9d</t>
+          <t>67e72c4acde4e894925705c9</t>
         </is>
       </c>
       <c r="W61" t="n">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356aeb</t>
+          <t>67e72c49cde4e89492570317</t>
         </is>
       </c>
       <c r="W62" t="n">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356aed</t>
+          <t>67e72c49cde4e89492570319</t>
         </is>
       </c>
       <c r="W63" t="n">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356ae9</t>
+          <t>67e72c49cde4e89492570315</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b25</t>
+          <t>67e72c49cde4e89492570351</t>
         </is>
       </c>
       <c r="W65" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b29</t>
+          <t>67e72c49cde4e89492570355</t>
         </is>
       </c>
       <c r="W66" t="n">
@@ -11151,7 +11151,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b0e</t>
+          <t>67e72c49cde4e8949257033a</t>
         </is>
       </c>
       <c r="W67" t="n">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b0c</t>
+          <t>67e72c49cde4e89492570338</t>
         </is>
       </c>
       <c r="W68" t="n">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356dd2</t>
+          <t>67e72c4acde4e894925705fe</t>
         </is>
       </c>
       <c r="W69" t="n">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356dce</t>
+          <t>67e72c4acde4e894925705fa</t>
         </is>
       </c>
       <c r="W70" t="n">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356dca</t>
+          <t>67e72c4acde4e894925705f6</t>
         </is>
       </c>
       <c r="W71" t="n">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b46</t>
+          <t>67e72c49cde4e89492570372</t>
         </is>
       </c>
       <c r="W72" t="n">
@@ -12111,7 +12111,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b42</t>
+          <t>67e72c49cde4e8949257036e</t>
         </is>
       </c>
       <c r="W73" t="n">
@@ -12271,7 +12271,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b48</t>
+          <t>67e72c49cde4e89492570374</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b44</t>
+          <t>67e72c49cde4e89492570370</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ec2</t>
+          <t>67e72c4bcde4e894925706ee</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ec6</t>
+          <t>67e72c4bcde4e894925706f2</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ec4</t>
+          <t>67e72c4bcde4e894925706f0</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ec8</t>
+          <t>67e72c4bcde4e894925706f4</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356ad1</t>
+          <t>67e72c49cde4e894925702fd</t>
         </is>
       </c>
       <c r="W80" t="n">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356eef</t>
+          <t>67e72c4bcde4e8949257071b</t>
         </is>
       </c>
       <c r="W81" t="n">
@@ -13551,7 +13551,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356eed</t>
+          <t>67e72c4bcde4e89492570719</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -13711,7 +13711,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356ef1</t>
+          <t>67e72c4bcde4e8949257071d</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d5c</t>
+          <t>67e72c4acde4e89492570588</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d5e</t>
+          <t>67e72c4acde4e8949257058a</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d75</t>
+          <t>67e72c4acde4e894925705a1</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e6d</t>
+          <t>67e72c4acde4e89492570699</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -14511,7 +14511,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d8c</t>
+          <t>67e72c4acde4e894925705b8</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a84</t>
+          <t>67e72c49cde4e894925702b0</t>
         </is>
       </c>
       <c r="W89" t="n">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a82</t>
+          <t>67e72c49cde4e894925702ae</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569f6</t>
+          <t>67e72c49cde4e89492570222</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -15151,7 +15151,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569f8</t>
+          <t>67e72c49cde4e89492570224</t>
         </is>
       </c>
       <c r="W92" t="n">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569f2</t>
+          <t>67e72c49cde4e8949257021e</t>
         </is>
       </c>
       <c r="W93" t="n">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569f4</t>
+          <t>67e72c49cde4e89492570220</t>
         </is>
       </c>
       <c r="W94" t="n">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e0a</t>
+          <t>67e72c4acde4e89492570636</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e0c</t>
+          <t>67e72c4acde4e89492570638</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e10</t>
+          <t>67e72c4acde4e8949257063c</t>
         </is>
       </c>
       <c r="W97" t="n">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e0e</t>
+          <t>67e72c4acde4e8949257063a</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -16271,7 +16271,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356df7</t>
+          <t>67e72c4acde4e89492570623</t>
         </is>
       </c>
       <c r="W99" t="n">
@@ -16431,7 +16431,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356df5</t>
+          <t>67e72c4acde4e89492570621</t>
         </is>
       </c>
       <c r="W100" t="n">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356cd8</t>
+          <t>67e72c4acde4e89492570504</t>
         </is>
       </c>
       <c r="W101" t="n">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e8d</t>
+          <t>67e72c4bcde4e894925706b9</t>
         </is>
       </c>
       <c r="W102" t="n">
@@ -16911,7 +16911,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e95</t>
+          <t>67e72c4bcde4e894925706c1</t>
         </is>
       </c>
       <c r="W103" t="n">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e95</t>
+          <t>67e72c4bcde4e894925706c1</t>
         </is>
       </c>
       <c r="W104" t="n">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e8f</t>
+          <t>67e72c4bcde4e894925706bb</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -17391,7 +17391,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e91</t>
+          <t>67e72c4bcde4e894925706bd</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e7c</t>
+          <t>67e72c4bcde4e894925706a8</t>
         </is>
       </c>
       <c r="W107" t="n">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f1a</t>
+          <t>67e72c4bcde4e89492570746</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -17871,7 +17871,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f18</t>
+          <t>67e72c4bcde4e89492570744</t>
         </is>
       </c>
       <c r="W109" t="n">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f61</t>
+          <t>67e72c4bcde4e8949257078d</t>
         </is>
       </c>
       <c r="W110" t="n">
@@ -18191,7 +18191,7 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f65</t>
+          <t>67e72c4bcde4e89492570791</t>
         </is>
       </c>
       <c r="W111" t="n">
@@ -18447,7 +18447,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f357043</t>
+          <t>67e72c4bcde4e8949257086f</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -18703,7 +18703,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f7a</t>
+          <t>67e72c4bcde4e894925707a6</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -18863,7 +18863,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356fda</t>
+          <t>67e72c4bcde4e89492570806</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -19407,7 +19407,7 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356ff7</t>
+          <t>67e72c4bcde4e89492570823</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -19567,7 +19567,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356fe5</t>
+          <t>67e72c4bcde4e89492570811</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -20111,7 +20111,7 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f357007</t>
+          <t>67e72c4bcde4e89492570833</t>
         </is>
       </c>
       <c r="W127" t="n">
@@ -20271,7 +20271,7 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f9c</t>
+          <t>67e72c4bcde4e894925707c8</t>
         </is>
       </c>
       <c r="W128" t="n">
@@ -20431,7 +20431,7 @@
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f357019</t>
+          <t>67e72c4bcde4e89492570845</t>
         </is>
       </c>
       <c r="W129" t="n">
@@ -20591,7 +20591,7 @@
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f357026</t>
+          <t>67e72c4bcde4e89492570852</t>
         </is>
       </c>
       <c r="W130" t="n">
@@ -20751,7 +20751,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f4c</t>
+          <t>67e72c4bcde4e89492570778</t>
         </is>
       </c>
       <c r="W131" t="n">
@@ -20911,7 +20911,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f357036</t>
+          <t>67e72c4bcde4e89492570862</t>
         </is>
       </c>
       <c r="W132" t="n">
@@ -21071,7 +21071,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356fc2</t>
+          <t>67e72c4bcde4e894925707ee</t>
         </is>
       </c>
       <c r="W133" t="n">

--- a/fifty_one/measurements/Updated_full_body_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_body_Filtered_Data_with_real_length.xlsx
@@ -767,7 +767,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67ac</t>
+          <t>680e45001529694733d7b65f</t>
         </is>
       </c>
       <c r="Y2" t="n">
@@ -933,7 +933,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67a8</t>
+          <t>680e45001529694733d7b65b</t>
         </is>
       </c>
       <c r="Y3" t="n">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67aa</t>
+          <t>680e45001529694733d7b65d</t>
         </is>
       </c>
       <c r="Y4" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65f4</t>
+          <t>680e45001529694733d7b4a7</t>
         </is>
       </c>
       <c r="Y5" t="n">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65f8</t>
+          <t>680e45001529694733d7b4ab</t>
         </is>
       </c>
       <c r="Y6" t="n">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65f6</t>
+          <t>680e45001529694733d7b4a9</t>
         </is>
       </c>
       <c r="Y7" t="n">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65fa</t>
+          <t>680e45001529694733d7b4ad</t>
         </is>
       </c>
       <c r="Y8" t="n">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68bc</t>
+          <t>680e45011529694733d7b76f</t>
         </is>
       </c>
       <c r="Y9" t="n">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68be</t>
+          <t>680e45011529694733d7b771</t>
         </is>
       </c>
       <c r="Y10" t="n">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68c0</t>
+          <t>680e45011529694733d7b773</t>
         </is>
       </c>
       <c r="Y11" t="n">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a12</t>
+          <t>680e45011529694733d7b8c5</t>
         </is>
       </c>
       <c r="Y12" t="n">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a10</t>
+          <t>680e45011529694733d7b8c3</t>
         </is>
       </c>
       <c r="Y13" t="n">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f677d</t>
+          <t>680e45001529694733d7b630</t>
         </is>
       </c>
       <c r="Y14" t="n">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f677d</t>
+          <t>680e45001529694733d7b630</t>
         </is>
       </c>
       <c r="Y15" t="n">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f677b</t>
+          <t>680e45001529694733d7b62e</t>
         </is>
       </c>
       <c r="Y16" t="n">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f677f</t>
+          <t>680e45001529694733d7b632</t>
         </is>
       </c>
       <c r="Y17" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f691a</t>
+          <t>680e45011529694733d7b7cd</t>
         </is>
       </c>
       <c r="Y18" t="n">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f691c</t>
+          <t>680e45011529694733d7b7cf</t>
         </is>
       </c>
       <c r="Y19" t="n">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6676</t>
+          <t>680e45001529694733d7b529</t>
         </is>
       </c>
       <c r="Y20" t="n">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6674</t>
+          <t>680e45001529694733d7b527</t>
         </is>
       </c>
       <c r="Y21" t="n">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6672</t>
+          <t>680e45001529694733d7b525</t>
         </is>
       </c>
       <c r="Y22" t="n">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>67ee47ee23277aaaac7f65a4</t>
+          <t>680e44ff1529694733d7b457</t>
         </is>
       </c>
       <c r="Y23" t="n">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>67ee47ee23277aaaac7f65a6</t>
+          <t>680e44ff1529694733d7b459</t>
         </is>
       </c>
       <c r="Y24" t="n">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>67ee47ee23277aaaac7f65a2</t>
+          <t>680e44ff1529694733d7b455</t>
         </is>
       </c>
       <c r="Y25" t="n">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f674e</t>
+          <t>680e45001529694733d7b601</t>
         </is>
       </c>
       <c r="Y26" t="n">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f674a</t>
+          <t>680e45001529694733d7b5fd</t>
         </is>
       </c>
       <c r="Y27" t="n">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f674c</t>
+          <t>680e45001529694733d7b5ff</t>
         </is>
       </c>
       <c r="Y28" t="n">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f6800</t>
+          <t>680e45001529694733d7b6b3</t>
         </is>
       </c>
       <c r="Y29" t="n">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f6802</t>
+          <t>680e45001529694733d7b6b5</t>
         </is>
       </c>
       <c r="Y30" t="n">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f6806</t>
+          <t>680e45001529694733d7b6b9</t>
         </is>
       </c>
       <c r="Y31" t="n">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f6804</t>
+          <t>680e45001529694733d7b6b7</t>
         </is>
       </c>
       <c r="Y32" t="n">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f680a</t>
+          <t>680e45001529694733d7b6bd</t>
         </is>
       </c>
       <c r="Y33" t="n">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6634</t>
+          <t>680e45001529694733d7b4e7</t>
         </is>
       </c>
       <c r="Y34" t="n">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6636</t>
+          <t>680e45001529694733d7b4e9</t>
         </is>
       </c>
       <c r="Y35" t="n">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6636</t>
+          <t>680e45001529694733d7b4e9</t>
         </is>
       </c>
       <c r="Y36" t="n">
@@ -6577,7 +6577,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67cf</t>
+          <t>680e45001529694733d7b682</t>
         </is>
       </c>
       <c r="Y37" t="n">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67cb</t>
+          <t>680e45001529694733d7b67e</t>
         </is>
       </c>
       <c r="Y38" t="n">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67c9</t>
+          <t>680e45001529694733d7b67c</t>
         </is>
       </c>
       <c r="Y39" t="n">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67c7</t>
+          <t>680e45001529694733d7b67a</t>
         </is>
       </c>
       <c r="Y40" t="n">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67cd</t>
+          <t>680e45001529694733d7b680</t>
         </is>
       </c>
       <c r="Y41" t="n">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68e5</t>
+          <t>680e45011529694733d7b798</t>
         </is>
       </c>
       <c r="Y42" t="n">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68e1</t>
+          <t>680e45011529694733d7b794</t>
         </is>
       </c>
       <c r="Y43" t="n">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68e3</t>
+          <t>680e45011529694733d7b796</t>
         </is>
       </c>
       <c r="Y44" t="n">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68df</t>
+          <t>680e45011529694733d7b792</t>
         </is>
       </c>
       <c r="Y45" t="n">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f684e</t>
+          <t>680e45001529694733d7b701</t>
         </is>
       </c>
       <c r="Y46" t="n">
@@ -8237,7 +8237,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f684c</t>
+          <t>680e45001529694733d7b6ff</t>
         </is>
       </c>
       <c r="Y47" t="n">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f6850</t>
+          <t>680e45001529694733d7b703</t>
         </is>
       </c>
       <c r="Y48" t="n">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f6852</t>
+          <t>680e45001529694733d7b705</t>
         </is>
       </c>
       <c r="Y49" t="n">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f661d</t>
+          <t>680e45001529694733d7b4d0</t>
         </is>
       </c>
       <c r="Y50" t="n">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f661f</t>
+          <t>680e45001529694733d7b4d2</t>
         </is>
       </c>
       <c r="Y51" t="n">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a25</t>
+          <t>680e45011529694733d7b8d8</t>
         </is>
       </c>
       <c r="Y52" t="n">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a27</t>
+          <t>680e45011529694733d7b8da</t>
         </is>
       </c>
       <c r="Y53" t="n">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a29</t>
+          <t>680e45011529694733d7b8dc</t>
         </is>
       </c>
       <c r="Y54" t="n">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6890</t>
+          <t>680e45011529694733d7b743</t>
         </is>
       </c>
       <c r="Y55" t="n">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f688e</t>
+          <t>680e45011529694733d7b741</t>
         </is>
       </c>
       <c r="Y56" t="n">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f688c</t>
+          <t>680e45011529694733d7b73f</t>
         </is>
       </c>
       <c r="Y57" t="n">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6972</t>
+          <t>680e45011529694733d7b825</t>
         </is>
       </c>
       <c r="Y58" t="n">
@@ -10229,7 +10229,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6970</t>
+          <t>680e45011529694733d7b823</t>
         </is>
       </c>
       <c r="Y59" t="n">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6974</t>
+          <t>680e45011529694733d7b827</t>
         </is>
       </c>
       <c r="Y60" t="n">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6978</t>
+          <t>680e45011529694733d7b82b</t>
         </is>
       </c>
       <c r="Y61" t="n">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f66c6</t>
+          <t>680e45001529694733d7b579</t>
         </is>
       </c>
       <c r="Y62" t="n">
@@ -10893,7 +10893,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f66c8</t>
+          <t>680e45001529694733d7b57b</t>
         </is>
       </c>
       <c r="Y63" t="n">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f66cc</t>
+          <t>680e45001529694733d7b57f</t>
         </is>
       </c>
       <c r="Y64" t="n">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6700</t>
+          <t>680e45001529694733d7b5b3</t>
         </is>
       </c>
       <c r="Y65" t="n">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6704</t>
+          <t>680e45001529694733d7b5b7</t>
         </is>
       </c>
       <c r="Y66" t="n">
@@ -11557,7 +11557,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f66ed</t>
+          <t>680e45001529694733d7b5a0</t>
         </is>
       </c>
       <c r="Y67" t="n">
@@ -11723,7 +11723,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f66eb</t>
+          <t>680e45001529694733d7b59e</t>
         </is>
       </c>
       <c r="Y68" t="n">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f69a5</t>
+          <t>680e45011529694733d7b858</t>
         </is>
       </c>
       <c r="Y69" t="n">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f69a9</t>
+          <t>680e45011529694733d7b85c</t>
         </is>
       </c>
       <c r="Y70" t="n">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f69a1</t>
+          <t>680e45011529694733d7b854</t>
         </is>
       </c>
       <c r="Y71" t="n">
@@ -12387,7 +12387,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6723</t>
+          <t>680e45001529694733d7b5d6</t>
         </is>
       </c>
       <c r="Y72" t="n">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f671d</t>
+          <t>680e45001529694733d7b5d0</t>
         </is>
       </c>
       <c r="Y73" t="n">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f671f</t>
+          <t>680e45001529694733d7b5d2</t>
         </is>
       </c>
       <c r="Y74" t="n">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6721</t>
+          <t>680e45001529694733d7b5d4</t>
         </is>
       </c>
       <c r="Y75" t="n">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a95</t>
+          <t>680e45011529694733d7b948</t>
         </is>
       </c>
       <c r="Y76" t="n">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a99</t>
+          <t>680e45011529694733d7b94c</t>
         </is>
       </c>
       <c r="Y77" t="n">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a97</t>
+          <t>680e45011529694733d7b94a</t>
         </is>
       </c>
       <c r="Y78" t="n">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a9b</t>
+          <t>680e45011529694733d7b94e</t>
         </is>
       </c>
       <c r="Y79" t="n">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f66aa</t>
+          <t>680e45001529694733d7b55d</t>
         </is>
       </c>
       <c r="Y80" t="n">
@@ -13881,7 +13881,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6ac2</t>
+          <t>680e45011529694733d7b975</t>
         </is>
       </c>
       <c r="Y81" t="n">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6ac0</t>
+          <t>680e45011529694733d7b973</t>
         </is>
       </c>
       <c r="Y82" t="n">
@@ -14213,7 +14213,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6aca</t>
+          <t>680e45011529694733d7b97d</t>
         </is>
       </c>
       <c r="Y83" t="n">
@@ -14379,7 +14379,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6931</t>
+          <t>680e45011529694733d7b7e4</t>
         </is>
       </c>
       <c r="Y84" t="n">
@@ -14545,7 +14545,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6933</t>
+          <t>680e45011529694733d7b7e6</t>
         </is>
       </c>
       <c r="Y85" t="n">
@@ -14711,7 +14711,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f694c</t>
+          <t>680e45011529694733d7b7ff</t>
         </is>
       </c>
       <c r="Y86" t="n">
@@ -14877,7 +14877,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a44</t>
+          <t>680e45011529694733d7b8f7</t>
         </is>
       </c>
       <c r="Y87" t="n">
@@ -15043,7 +15043,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6965</t>
+          <t>680e45011529694733d7b818</t>
         </is>
       </c>
       <c r="Y88" t="n">
@@ -15209,7 +15209,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6659</t>
+          <t>680e45001529694733d7b50c</t>
         </is>
       </c>
       <c r="Y89" t="n">
@@ -15375,7 +15375,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f665b</t>
+          <t>680e45001529694733d7b50e</t>
         </is>
       </c>
       <c r="Y90" t="n">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65cd</t>
+          <t>680e45001529694733d7b480</t>
         </is>
       </c>
       <c r="Y91" t="n">
@@ -15707,7 +15707,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65cb</t>
+          <t>680e45001529694733d7b47e</t>
         </is>
       </c>
       <c r="Y92" t="n">
@@ -15873,7 +15873,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65c7</t>
+          <t>680e45001529694733d7b47a</t>
         </is>
       </c>
       <c r="Y93" t="n">
@@ -16039,7 +16039,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65c9</t>
+          <t>680e45001529694733d7b47c</t>
         </is>
       </c>
       <c r="Y94" t="n">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f69e3</t>
+          <t>680e45011529694733d7b896</t>
         </is>
       </c>
       <c r="Y95" t="n">
@@ -16371,7 +16371,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f69e1</t>
+          <t>680e45011529694733d7b894</t>
         </is>
       </c>
       <c r="Y96" t="n">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f69e5</t>
+          <t>680e45011529694733d7b898</t>
         </is>
       </c>
       <c r="Y97" t="n">
@@ -16703,7 +16703,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f69e7</t>
+          <t>680e45011529694733d7b89a</t>
         </is>
       </c>
       <c r="Y98" t="n">
@@ -16869,7 +16869,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f69ce</t>
+          <t>680e45011529694733d7b881</t>
         </is>
       </c>
       <c r="Y99" t="n">
@@ -17035,7 +17035,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f69cc</t>
+          <t>680e45011529694733d7b87f</t>
         </is>
       </c>
       <c r="Y100" t="n">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68b1</t>
+          <t>680e45011529694733d7b764</t>
         </is>
       </c>
       <c r="Y101" t="n">
@@ -17367,7 +17367,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a64</t>
+          <t>680e45011529694733d7b917</t>
         </is>
       </c>
       <c r="Y102" t="n">
@@ -17533,7 +17533,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a64</t>
+          <t>680e45011529694733d7b917</t>
         </is>
       </c>
       <c r="Y103" t="n">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a64</t>
+          <t>680e45011529694733d7b917</t>
         </is>
       </c>
       <c r="Y104" t="n">
@@ -17865,7 +17865,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a66</t>
+          <t>680e45011529694733d7b919</t>
         </is>
       </c>
       <c r="Y105" t="n">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a62</t>
+          <t>680e45011529694733d7b915</t>
         </is>
       </c>
       <c r="Y106" t="n">
@@ -18197,7 +18197,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a53</t>
+          <t>680e45011529694733d7b906</t>
         </is>
       </c>
       <c r="Y107" t="n">
@@ -18363,7 +18363,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6aed</t>
+          <t>680e45011529694733d7b9a0</t>
         </is>
       </c>
       <c r="Y108" t="n">
@@ -18529,7 +18529,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6aeb</t>
+          <t>680e45011529694733d7b99e</t>
         </is>
       </c>
       <c r="Y109" t="n">
@@ -18695,7 +18695,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6b3a</t>
+          <t>680e45011529694733d7b9ed</t>
         </is>
       </c>
       <c r="Y110" t="n">
@@ -18861,7 +18861,7 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6b3e</t>
+          <t>680e45011529694733d7b9f1</t>
         </is>
       </c>
       <c r="Y111" t="n">
@@ -19125,7 +19125,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6c41</t>
+          <t>680e45021529694733d7baff</t>
         </is>
       </c>
       <c r="Y113" t="n">
@@ -19389,7 +19389,7 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6b53</t>
+          <t>680e45021529694733d7ba06</t>
         </is>
       </c>
       <c r="Y115" t="n">
@@ -19555,7 +19555,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6bbc</t>
+          <t>680e45021529694733d7ba6f</t>
         </is>
       </c>
       <c r="Y116" t="n">
@@ -20113,7 +20113,7 @@
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6be7</t>
+          <t>680e45021529694733d7ba9a</t>
         </is>
       </c>
       <c r="Y121" t="n">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6bd1</t>
+          <t>680e45021529694733d7ba84</t>
         </is>
       </c>
       <c r="Y122" t="n">
@@ -20837,7 +20837,7 @@
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6bf9</t>
+          <t>680e45021529694733d7baac</t>
         </is>
       </c>
       <c r="Y127" t="n">
@@ -21003,7 +21003,7 @@
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6b75</t>
+          <t>680e45021529694733d7ba28</t>
         </is>
       </c>
       <c r="Y128" t="n">
@@ -21169,7 +21169,7 @@
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6c0f</t>
+          <t>680e45021529694733d7bac2</t>
         </is>
       </c>
       <c r="Y129" t="n">
@@ -21335,7 +21335,7 @@
       </c>
       <c r="X130" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6c1c</t>
+          <t>680e45021529694733d7bacf</t>
         </is>
       </c>
       <c r="Y130" t="n">
@@ -21501,7 +21501,7 @@
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6b27</t>
+          <t>680e45011529694733d7b9da</t>
         </is>
       </c>
       <c r="Y131" t="n">
@@ -21667,7 +21667,7 @@
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6c32</t>
+          <t>680e45021529694733d7bae5</t>
         </is>
       </c>
       <c r="Y132" t="n">
@@ -21833,7 +21833,7 @@
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6ba2</t>
+          <t>680e45021529694733d7ba55</t>
         </is>
       </c>
       <c r="Y133" t="n">
